--- a/группы.xlsx
+++ b/группы.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E18877-5DD3-4351-AEC7-35A9FCF796A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F090F63B-5B33-4712-B95E-65BA4B9344AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИСТ 201" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
   <si>
     <t>ФИО</t>
   </si>
@@ -327,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,6 +354,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,6 +1076,9 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1122,6 +1134,9 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1481,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DAC10-6DD6-4DAE-A116-768E1DE14FD8}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,9 +1509,10 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1512,8 +1528,11 @@
       <c r="F1" s="1">
         <v>44520</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="1">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1522,8 +1541,11 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1531,8 +1553,11 @@
       <c r="D3" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1540,8 +1565,9 @@
         <v>75</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1552,15 +1578,17 @@
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1568,8 +1596,9 @@
       <c r="D7" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -1577,8 +1606,9 @@
         <v>75</v>
       </c>
       <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -1594,8 +1624,11 @@
       <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -1605,8 +1638,9 @@
       <c r="D10" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1622,8 +1656,11 @@
       <c r="F11" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1631,29 +1668,33 @@
         <v>75</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1661,36 +1702,41 @@
       <c r="D16" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
@@ -1698,8 +1744,9 @@
       <c r="D21" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -1710,6 +1757,9 @@
         <v>75</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
     </row>

--- a/группы.xlsx
+++ b/группы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F090F63B-5B33-4712-B95E-65BA4B9344AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE2AFCB-3188-47C3-946C-CEFB930E7345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИСТ 201" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
   <si>
     <t>ФИО</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Кретова София</t>
+  </si>
+  <si>
+    <t>12.Васько Ксения</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3E4E39-D0DC-4FC1-8F6B-79B1CF584912}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L23" activeCellId="2" sqref="L27 L26 L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,9 +1275,10 @@
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,8 +1309,11 @@
       <c r="K1" s="1">
         <v>44513</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1334,17 +1341,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1366,7 +1373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1380,17 +1387,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1404,12 +1411,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1420,12 +1427,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1433,32 +1440,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1466,17 +1473,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1484,9 +1494,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>70</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1498,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DAC10-6DD6-4DAE-A116-768E1DE14FD8}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/группы.xlsx
+++ b/группы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE2AFCB-3188-47C3-946C-CEFB930E7345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E603FE-4FD2-4DD7-90AA-5089CED2CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИСТ 201" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
   <si>
     <t>ФИО</t>
   </si>
@@ -114,39 +114,18 @@
     <t>Задание 1</t>
   </si>
   <si>
-    <t>Антонов Максим</t>
-  </si>
-  <si>
     <t>Баскова Регина</t>
   </si>
   <si>
-    <t>Баштанник Никита</t>
-  </si>
-  <si>
-    <t>Веревкина Анна</t>
-  </si>
-  <si>
     <t>Горбунов Владислав</t>
   </si>
   <si>
-    <t>Данилова Александра</t>
-  </si>
-  <si>
-    <t>Ережепов Дамир</t>
-  </si>
-  <si>
     <t>Козлов Никита</t>
   </si>
   <si>
-    <t>Корж Алексей</t>
-  </si>
-  <si>
     <t>Кондакова Юлия</t>
   </si>
   <si>
-    <t>Крупина Анастасия</t>
-  </si>
-  <si>
     <t>Кужугет Артыш</t>
   </si>
   <si>
@@ -162,27 +141,9 @@
     <t>Пичугин Андрей</t>
   </si>
   <si>
-    <t>Плисов Илья</t>
-  </si>
-  <si>
     <t>Сазонов Максим</t>
   </si>
   <si>
-    <t>Сериков Никита</t>
-  </si>
-  <si>
-    <t>Ситнев Владислав</t>
-  </si>
-  <si>
-    <t>Солдатов Александр</t>
-  </si>
-  <si>
-    <t>1. БАРЫШНИКОВ Анатолий Олегович</t>
-  </si>
-  <si>
-    <t>2. ВАРЕНИК Евгений Андреевич</t>
-  </si>
-  <si>
     <t>3. ВЕРПАТОВА Ксения Алексеевна</t>
   </si>
   <si>
@@ -192,21 +153,12 @@
     <t>6. ЖУРАВСКИЙ Павел Александрович</t>
   </si>
   <si>
-    <t>7. ЗАХАРЕЦ Анна Вячеславовна</t>
-  </si>
-  <si>
-    <t>8. ЗЛОБИН Сергей Владимирович</t>
-  </si>
-  <si>
     <t>9. ИВАНОВ Александр Александрович</t>
   </si>
   <si>
     <t>10. КИСЕЛЕВ Владислав Сергеевич</t>
   </si>
   <si>
-    <t>11. МЕРКУЛОВ Дмитрий Станиславович</t>
-  </si>
-  <si>
     <t>12. МИЩЕНКО Никита Дмитриевич</t>
   </si>
   <si>
@@ -277,6 +229,54 @@
   </si>
   <si>
     <t>12.Васько Ксения</t>
+  </si>
+  <si>
+    <t>Антонов Максим(Зачет)</t>
+  </si>
+  <si>
+    <t>Корж Алексей(Зачет)</t>
+  </si>
+  <si>
+    <t>Солдатов Александр(Зачет)</t>
+  </si>
+  <si>
+    <t>Веревкина Анна(Зачет)</t>
+  </si>
+  <si>
+    <t>Баштанник Никита (Зачет)</t>
+  </si>
+  <si>
+    <t>Крупина Анастасия (Зачет)</t>
+  </si>
+  <si>
+    <t>Плисов Илья (Зачет)</t>
+  </si>
+  <si>
+    <t>1. БАРЫШНИКОВ Анатолий Олегович(Зачет)</t>
+  </si>
+  <si>
+    <t>8. ЗЛОБИН Сергей Владимирович(зачет)</t>
+  </si>
+  <si>
+    <t>11. МЕРКУЛОВ Дмитрий Станиславович(Зачет)</t>
+  </si>
+  <si>
+    <t>2. ВАРЕНИК Евгений Андреевич (Зачет)</t>
+  </si>
+  <si>
+    <t>7. ЗАХАРЕЦ Анна Вячеславовна (Зачет)</t>
+  </si>
+  <si>
+    <t>Сериков Никита(зачет)</t>
+  </si>
+  <si>
+    <t>Ситнев Владислав(зачет)</t>
+  </si>
+  <si>
+    <t>Ережепов Дамир(зачет)</t>
+  </si>
+  <si>
+    <t>Данилова Александра(зачет)</t>
   </si>
 </sst>
 </file>
@@ -292,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +317,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -330,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -365,6 +371,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,9 +680,10 @@
     <col min="10" max="11" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,16 +691,16 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1">
         <v>44443</v>
@@ -707,12 +721,13 @@
         <v>44513</v>
       </c>
       <c r="M1" s="1">
-        <v>44534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44541</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -735,13 +750,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
@@ -756,8 +774,11 @@
       <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -768,7 +789,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -781,6 +802,9 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
@@ -798,10 +822,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
@@ -814,7 +847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -824,6 +857,9 @@
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
@@ -840,14 +876,23 @@
       <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
@@ -862,7 +907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -878,7 +923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -891,6 +936,9 @@
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
@@ -907,8 +955,11 @@
       <c r="L10" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -938,12 +989,21 @@
       <c r="L11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -960,10 +1020,13 @@
       <c r="L12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -976,19 +1039,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -999,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1021,8 +1084,11 @@
       <c r="L17" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1032,6 +1098,12 @@
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1047,14 +1119,20 @@
       <c r="L18" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1071,8 +1149,11 @@
       <c r="L19" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1082,6 +1163,12 @@
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1098,11 +1185,17 @@
       <c r="L20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1116,8 +1209,11 @@
       <c r="L21" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1142,6 +1238,9 @@
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1161,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1171,13 +1270,16 @@
       <c r="H24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1194,14 +1296,23 @@
       <c r="L25" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1215,8 +1326,11 @@
       <c r="L26" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1237,17 +1351,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="K28" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1259,15 +1379,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3E4E39-D0DC-4FC1-8F6B-79B1CF584912}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" activeCellId="2" sqref="L27 L26 L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="1" max="1" width="47.21875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" customWidth="1"/>
@@ -1275,10 +1395,10 @@
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1421,7 @@
         <v>44492</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1">
         <v>44506</v>
@@ -1312,201 +1432,237 @@
       <c r="L1" s="1">
         <v>44534</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1">
+        <v>44541</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="L26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
       <c r="L27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1517,23 +1673,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DAC10-6DD6-4DAE-A116-768E1DE14FD8}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1552,10 +1710,13 @@
       <c r="G1" s="1">
         <v>44534</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="1">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1566,9 +1727,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
@@ -1577,67 +1738,79 @@
       <c r="G3" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D8" s="10"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>23</v>
@@ -1648,28 +1821,34 @@
       <c r="G9" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>23</v>
@@ -1680,108 +1859,120 @@
       <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/группы.xlsx
+++ b/группы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E603FE-4FD2-4DD7-90AA-5089CED2CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B197C3D3-24C9-4986-AE71-70D3C573392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИСТ 201" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="81">
   <si>
     <t>ФИО</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Сазонов Максим</t>
   </si>
   <si>
-    <t>3. ВЕРПАТОВА Ксения Алексеевна</t>
-  </si>
-  <si>
     <t>4. ЕФИМЕНКО Егор Вячеславович</t>
   </si>
   <si>
@@ -168,27 +165,15 @@
     <t>14. ШУМКА Евгений Александрович</t>
   </si>
   <si>
-    <t>1. ЖУКОВ Михаил Андреевич</t>
-  </si>
-  <si>
     <t>2. КОЗЛОВ Никита Романович</t>
   </si>
   <si>
-    <t>3. КОЛДАШЕВ Рамиль Рустамович</t>
-  </si>
-  <si>
     <t>4. КРАСНОРУЦКИЙ Дмитрий Андреевич</t>
   </si>
   <si>
     <t>5. КРИВОШЕЕНКО Мария Андреевна</t>
   </si>
   <si>
-    <t>6. МАНГУС Александр Алексеевич</t>
-  </si>
-  <si>
-    <t>7. МАЦКЕВИЧ Юрий Владимирович</t>
-  </si>
-  <si>
     <t>8. МЕЛКОВСКИЙ Иван Дмитриевич</t>
   </si>
   <si>
@@ -277,6 +262,21 @@
   </si>
   <si>
     <t>Данилова Александра(зачет)</t>
+  </si>
+  <si>
+    <t>6. МАНГУС Александр Алексеевич(Зачет)</t>
+  </si>
+  <si>
+    <t>3. КОЛДАШЕВ Рамиль Рустамович(Зачет)</t>
+  </si>
+  <si>
+    <t>1. ЖУКОВ Михаил Андреевич(Зачет)</t>
+  </si>
+  <si>
+    <t>7. МАЦКЕВИЧ Юрий Владимирович(Зачет)</t>
+  </si>
+  <si>
+    <t>3. ВЕРПАТОВА Ксения Алексеевна(Зачет)</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,16 +691,16 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1">
         <v>44443</v>
@@ -723,16 +723,21 @@
       <c r="M1" s="1">
         <v>44541</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1">
+        <v>44555</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -760,6 +765,9 @@
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
@@ -789,7 +797,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -803,6 +811,9 @@
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -860,6 +871,12 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
@@ -939,6 +956,9 @@
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
@@ -975,6 +995,9 @@
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1026,7 +1049,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1069,6 +1092,9 @@
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1133,6 +1159,15 @@
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1196,6 +1231,9 @@
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1217,6 +1255,18 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1280,6 +1330,9 @@
       <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1313,6 +1366,9 @@
       <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1337,6 +1393,18 @@
       <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1353,9 +1421,12 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="2"/>
@@ -1379,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3E4E39-D0DC-4FC1-8F6B-79B1CF584912}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,10 +1466,10 @@
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1492,7 @@
         <v>44492</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1">
         <v>44506</v>
@@ -1438,10 +1509,13 @@
       <c r="N1" s="1">
         <v>44548</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1">
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1458,10 +1532,13 @@
       <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1476,188 +1553,209 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="O21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
       <c r="L26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>23</v>
@@ -1675,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DAC10-6DD6-4DAE-A116-768E1DE14FD8}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1716,7 +1814,7 @@
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1739,25 +1837,25 @@
         <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4" s="17"/>
       <c r="G4" s="18"/>
       <c r="H4" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>23</v>
@@ -1768,7 +1866,7 @@
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1781,11 +1879,11 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
@@ -1794,10 +1892,10 @@
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10"/>
       <c r="G8" s="15"/>
@@ -1807,10 +1905,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>23</v>
@@ -1822,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1830,25 +1928,25 @@
         <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>23</v>
@@ -1860,20 +1958,20 @@
         <v>23</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1906,11 +2004,11 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1923,7 +2021,7 @@
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1939,7 +2037,7 @@
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1947,23 +2045,23 @@
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>23</v>
@@ -1972,7 +2070,7 @@
         <v>23</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/группы.xlsx
+++ b/группы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B197C3D3-24C9-4986-AE71-70D3C573392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C7991-59D9-4C3B-99F6-CBAFE7DF2212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
   <si>
     <t>ФИО</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Харитонова В</t>
   </si>
   <si>
-    <t>Задание 1</t>
-  </si>
-  <si>
     <t>Баскова Регина</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>11. ШЕНФЕЛЬД Рудольф Артурович</t>
   </si>
   <si>
-    <t>Задание 2</t>
-  </si>
-  <si>
     <t>Задание 3</t>
   </si>
   <si>
@@ -277,6 +271,15 @@
   </si>
   <si>
     <t>3. ВЕРПАТОВА Ксения Алексеевна(Зачет)</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Задание 6</t>
+  </si>
+  <si>
+    <t>Задание 7</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,6 +684,7 @@
     <col min="12" max="12" width="11.88671875" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" customWidth="1"/>
     <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -688,111 +692,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1">
-        <v>44443</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1">
-        <v>44457</v>
-      </c>
-      <c r="I1" s="1">
-        <v>44471</v>
-      </c>
-      <c r="J1" s="1">
-        <v>44485</v>
-      </c>
-      <c r="K1" s="1">
-        <v>44499</v>
-      </c>
-      <c r="L1" s="1">
-        <v>44513</v>
-      </c>
-      <c r="M1" s="1">
-        <v>44541</v>
-      </c>
-      <c r="N1" s="1">
-        <v>44555</v>
-      </c>
+        <v>44611</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2" t="str">
-        <f>+I3</f>
-        <v>+</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -801,645 +758,334 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="J27" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="K27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="K28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1492,7 +1138,7 @@
         <v>44492</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1">
         <v>44506</v>
@@ -1515,7 +1161,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1538,7 +1184,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1555,17 +1201,17 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1573,7 +1219,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1587,7 +1233,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1604,17 +1250,17 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1637,12 +1283,12 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -1653,12 +1299,12 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1672,12 +1318,12 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O18" t="s">
         <v>23</v>
@@ -1685,17 +1331,17 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O21" t="s">
         <v>23</v>
@@ -1703,7 +1349,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1714,7 +1360,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>23</v>
@@ -1728,12 +1374,12 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>23</v>
@@ -1741,7 +1387,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>23</v>
@@ -1755,7 +1401,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>23</v>
@@ -1814,7 +1460,7 @@
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1827,7 +1473,7 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
@@ -1837,25 +1483,25 @@
         <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="17"/>
       <c r="G4" s="18"/>
       <c r="H4" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>23</v>
@@ -1866,12 +1512,12 @@
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1879,11 +1525,11 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
@@ -1892,23 +1538,23 @@
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>23</v>
@@ -1920,33 +1566,33 @@
         <v>23</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>23</v>
@@ -1958,25 +1604,25 @@
         <v>23</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1984,7 +1630,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1992,7 +1638,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2000,20 +1646,20 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2021,7 +1667,7 @@
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -2029,7 +1675,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2037,7 +1683,7 @@
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2045,23 +1691,23 @@
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>23</v>
@@ -2070,7 +1716,7 @@
         <v>23</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/группы.xlsx
+++ b/группы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C7991-59D9-4C3B-99F6-CBAFE7DF2212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E57A87-5792-4DDF-94B9-CEBD4E607411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
   <si>
     <t>ФИО</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Мастерских Вадим</t>
   </si>
   <si>
-    <t>Расских Даниил</t>
-  </si>
-  <si>
     <t>Сальник Анастасия</t>
   </si>
   <si>
@@ -183,12 +180,6 @@
     <t>11. ШЕНФЕЛЬД Рудольф Артурович</t>
   </si>
   <si>
-    <t>Задание 3</t>
-  </si>
-  <si>
-    <t>Задание 4</t>
-  </si>
-  <si>
     <t>Задание 5</t>
   </si>
   <si>
@@ -273,13 +264,25 @@
     <t>3. ВЕРПАТОВА Ксения Алексеевна(Зачет)</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>Задание 6</t>
   </si>
   <si>
     <t>Задание 7</t>
+  </si>
+  <si>
+    <t>Ермола Алексей</t>
+  </si>
+  <si>
+    <t>Кобков Артур</t>
+  </si>
+  <si>
+    <t>Задание 8</t>
+  </si>
+  <si>
+    <t>Задание 9</t>
+  </si>
+  <si>
+    <t>Русских Даниил</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,40 +698,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1">
+      <c r="H1" s="19">
         <v>44611</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="I1" s="1">
+        <v>44618</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44633</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44639</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>50</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="L2" s="2"/>
@@ -734,11 +747,12 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -750,7 +764,6 @@
         <v>2</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
@@ -758,15 +771,23 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -774,14 +795,17 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -789,13 +813,14 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -806,13 +831,21 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -820,8 +853,12 @@
         <v>7</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -829,15 +866,25 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -846,15 +893,25 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -863,11 +920,12 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -876,10 +934,12 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -889,6 +949,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -896,7 +957,9 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -909,21 +972,31 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
@@ -938,17 +1011,21 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -956,7 +1033,7 @@
       <c r="E19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -974,12 +1051,15 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -987,55 +1067,74 @@
       <c r="E21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -1043,7 +1142,7 @@
       <c r="E25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1052,7 +1151,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -1061,32 +1160,61 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="2"/>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
       <c r="K27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1266,7 @@
         <v>44492</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1">
         <v>44506</v>
@@ -1161,253 +1289,253 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1460,64 +1588,64 @@
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="17"/>
       <c r="G4" s="18"/>
       <c r="H4" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1525,104 +1653,104 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1630,7 +1758,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1638,7 +1766,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1646,20 +1774,20 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1667,7 +1795,7 @@
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1675,7 +1803,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1683,7 +1811,7 @@
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1691,32 +1819,32 @@
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/группы.xlsx
+++ b/группы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E57A87-5792-4DDF-94B9-CEBD4E607411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2856C7C-B71A-4652-807A-7D0631A11F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="83">
   <si>
     <t>ФИО</t>
   </si>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,9 @@
       <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -812,6 +814,9 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -823,7 +828,9 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
@@ -885,7 +892,9 @@
       <c r="J10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
@@ -912,13 +921,18 @@
       <c r="J11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -928,7 +942,9 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
@@ -1204,7 +1220,9 @@
       <c r="J29" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1214,6 +1232,9 @@
         <v>22</v>
       </c>
       <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/группы.xlsx
+++ b/группы.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2856C7C-B71A-4652-807A-7D0631A11F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BDEAB8-12CC-4B23-BE41-6FF0774AF2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ИСТ 201" sheetId="1" r:id="rId1"/>
-    <sheet name="ИВТ-181" sheetId="2" r:id="rId2"/>
+    <sheet name="ИСТ 212" sheetId="1" r:id="rId1"/>
+    <sheet name="ИВТ-212" sheetId="2" r:id="rId2"/>
     <sheet name="Пин-181" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,80 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
   <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>Барт Алина</t>
-  </si>
-  <si>
-    <t>Батенко Данила</t>
-  </si>
-  <si>
-    <t>Горевой Иван</t>
-  </si>
-  <si>
-    <t>Завгородняя Валерия</t>
-  </si>
-  <si>
-    <t>Лернер Максим</t>
-  </si>
-  <si>
-    <t>Марикян Антонина</t>
-  </si>
-  <si>
-    <t>Надыкто Алексей</t>
-  </si>
-  <si>
-    <t>Осипов Андрей</t>
-  </si>
-  <si>
-    <t>Певчев Иван</t>
-  </si>
-  <si>
-    <t>Пугачева Светлана</t>
-  </si>
-  <si>
-    <t>Ахметчин Рамиль</t>
-  </si>
-  <si>
-    <t>Вадимова Маргарита</t>
-  </si>
-  <si>
-    <t>Козлов Венедикт</t>
-  </si>
-  <si>
-    <t>Мастерских Вадим</t>
-  </si>
-  <si>
-    <t>Сальник Анастасия</t>
-  </si>
-  <si>
-    <t>Суворов Павел</t>
-  </si>
-  <si>
-    <t>Филатьев Рустам</t>
-  </si>
-  <si>
-    <t>Харченко Диана</t>
-  </si>
-  <si>
-    <t>Яковлев Егор</t>
-  </si>
-  <si>
-    <t>Кузьменко Евгения</t>
-  </si>
-  <si>
-    <t>Воронова Полина</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>Харитонова В</t>
-  </si>
-  <si>
     <t>Баскова Регина</t>
   </si>
   <si>
@@ -138,69 +72,15 @@
     <t>Сазонов Максим</t>
   </si>
   <si>
-    <t>4. ЕФИМЕНКО Егор Вячеславович</t>
-  </si>
-  <si>
-    <t>6. ЖУРАВСКИЙ Павел Александрович</t>
-  </si>
-  <si>
-    <t>9. ИВАНОВ Александр Александрович</t>
-  </si>
-  <si>
-    <t>10. КИСЕЛЕВ Владислав Сергеевич</t>
-  </si>
-  <si>
-    <t>12. МИЩЕНКО Никита Дмитриевич</t>
-  </si>
-  <si>
-    <t>13. СУШКОВА Анастасия Алексеевна</t>
-  </si>
-  <si>
-    <t>14. ШУМКА Евгений Александрович</t>
-  </si>
-  <si>
-    <t>2. КОЗЛОВ Никита Романович</t>
-  </si>
-  <si>
-    <t>4. КРАСНОРУЦКИЙ Дмитрий Андреевич</t>
-  </si>
-  <si>
-    <t>5. КРИВОШЕЕНКО Мария Андреевна</t>
-  </si>
-  <si>
-    <t>8. МЕЛКОВСКИЙ Иван Дмитриевич</t>
-  </si>
-  <si>
-    <t>9. ПРОВАЛОВСКИЙ Эдуард Владиславович</t>
-  </si>
-  <si>
-    <t>10. УШАКОВ Дмитрий Евгеньевич</t>
-  </si>
-  <si>
-    <t>11. ШЕНФЕЛЬД Рудольф Артурович</t>
-  </si>
-  <si>
     <t>Задание 5</t>
   </si>
   <si>
     <t xml:space="preserve"> +</t>
   </si>
   <si>
-    <t>Бакеева Алина</t>
-  </si>
-  <si>
     <t>30.10.2021</t>
   </si>
   <si>
-    <t>Ахметова Алтын</t>
-  </si>
-  <si>
-    <t>Кретова София</t>
-  </si>
-  <si>
-    <t>12.Васько Ксения</t>
-  </si>
-  <si>
     <t>Антонов Максим(Зачет)</t>
   </si>
   <si>
@@ -222,21 +102,6 @@
     <t>Плисов Илья (Зачет)</t>
   </si>
   <si>
-    <t>1. БАРЫШНИКОВ Анатолий Олегович(Зачет)</t>
-  </si>
-  <si>
-    <t>8. ЗЛОБИН Сергей Владимирович(зачет)</t>
-  </si>
-  <si>
-    <t>11. МЕРКУЛОВ Дмитрий Станиславович(Зачет)</t>
-  </si>
-  <si>
-    <t>2. ВАРЕНИК Евгений Андреевич (Зачет)</t>
-  </si>
-  <si>
-    <t>7. ЗАХАРЕЦ Анна Вячеславовна (Зачет)</t>
-  </si>
-  <si>
     <t>Сериков Никита(зачет)</t>
   </si>
   <si>
@@ -249,40 +114,133 @@
     <t>Данилова Александра(зачет)</t>
   </si>
   <si>
-    <t>6. МАНГУС Александр Алексеевич(Зачет)</t>
-  </si>
-  <si>
-    <t>3. КОЛДАШЕВ Рамиль Рустамович(Зачет)</t>
-  </si>
-  <si>
-    <t>1. ЖУКОВ Михаил Андреевич(Зачет)</t>
-  </si>
-  <si>
-    <t>7. МАЦКЕВИЧ Юрий Владимирович(Зачет)</t>
-  </si>
-  <si>
-    <t>3. ВЕРПАТОВА Ксения Алексеевна(Зачет)</t>
-  </si>
-  <si>
-    <t>Задание 6</t>
-  </si>
-  <si>
-    <t>Задание 7</t>
-  </si>
-  <si>
-    <t>Ермола Алексей</t>
-  </si>
-  <si>
-    <t>Кобков Артур</t>
-  </si>
-  <si>
-    <t>Задание 8</t>
-  </si>
-  <si>
-    <t>Задание 9</t>
-  </si>
-  <si>
-    <t>Русских Даниил</t>
+    <t>Задание 1</t>
+  </si>
+  <si>
+    <t>Задание 2</t>
+  </si>
+  <si>
+    <t>Задание 3</t>
+  </si>
+  <si>
+    <t>Задание 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-я подгруппа </t>
+  </si>
+  <si>
+    <t>Аксёнов А.П.</t>
+  </si>
+  <si>
+    <t>Валеев К.Д</t>
+  </si>
+  <si>
+    <t>Коншу М.Я.</t>
+  </si>
+  <si>
+    <t>Кочетков М.В.</t>
+  </si>
+  <si>
+    <t>Кривенков Д.М.</t>
+  </si>
+  <si>
+    <t>2-я подгруппа</t>
+  </si>
+  <si>
+    <t>Афанасьев Р.Е.</t>
+  </si>
+  <si>
+    <t>Толкушкина М.С.</t>
+  </si>
+  <si>
+    <t>Кривич И.С.</t>
+  </si>
+  <si>
+    <t>Литвиненко А.Д.</t>
+  </si>
+  <si>
+    <t>Мамонов А.Д.</t>
+  </si>
+  <si>
+    <t>Нарчук А.Е.</t>
+  </si>
+  <si>
+    <t>Некрасов Н.В</t>
+  </si>
+  <si>
+    <t>Рыжков А.Д.</t>
+  </si>
+  <si>
+    <t>Плаксин К.С.</t>
+  </si>
+  <si>
+    <t>Фелькер Н.В.</t>
+  </si>
+  <si>
+    <t>Франчук Е.С.</t>
+  </si>
+  <si>
+    <t>Чалкина Е.П.</t>
+  </si>
+  <si>
+    <t>Шинковой Д.В</t>
+  </si>
+  <si>
+    <t>Зинченко М.В.</t>
+  </si>
+  <si>
+    <t>Братухина Альбина</t>
+  </si>
+  <si>
+    <t>Дингис Александр</t>
+  </si>
+  <si>
+    <t>Каргаполова  Виктория</t>
+  </si>
+  <si>
+    <t>Ганев Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мулинцев Сергей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мозжерин Илья </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михеев Андрей </t>
+  </si>
+  <si>
+    <t>Лугин Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несов Вячеслав </t>
+  </si>
+  <si>
+    <t>Притка Дмитрий</t>
+  </si>
+  <si>
+    <t>Рамазанов Артем</t>
+  </si>
+  <si>
+    <t>Резанов Артём</t>
+  </si>
+  <si>
+    <t>Толстых Андрей</t>
+  </si>
+  <si>
+    <t>Целищев Иван</t>
+  </si>
+  <si>
+    <t>Степанов Максим</t>
+  </si>
+  <si>
+    <t>Мамонов А.А.</t>
+  </si>
+  <si>
+    <t>Жинский Максим</t>
+  </si>
+  <si>
+    <t>Комиссарова А.С.</t>
   </si>
 </sst>
 </file>
@@ -342,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -364,10 +322,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -672,7 +626,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,22 +652,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="19">
+      <c r="H1" s="17">
         <v>44611</v>
       </c>
       <c r="I1" s="1">
@@ -725,243 +679,201 @@
       <c r="K1" s="1">
         <v>44639</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1">
+        <v>44646</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -969,88 +881,76 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+        <v>62</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1058,185 +958,99 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3E4E39-D0DC-4FC1-8F6B-79B1CF584912}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,26 +1082,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>44450</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44457</v>
-      </c>
-      <c r="E1" s="1">
-        <v>44464</v>
-      </c>
-      <c r="F1" s="1">
-        <v>44502</v>
-      </c>
-      <c r="G1" s="1">
-        <v>44485</v>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H1" s="1">
         <v>44492</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1">
         <v>44506</v>
@@ -1309,179 +1123,156 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1490,73 +1281,77 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
       <c r="L27" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1609,64 +1404,64 @@
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1674,104 +1469,104 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1779,7 +1574,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1787,7 +1582,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1795,36 +1590,36 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="G16" s="12"/>
       <c r="H16" s="6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="G18" s="18"/>
+    <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1832,40 +1627,40 @@
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
